--- a/data/trans_orig/P34C_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P34C_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CFC3E85C-E6FE-4538-B44E-49A7EBAAD530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{194B3F31-6F4A-4FAD-BDA1-B53CED23549A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5ADAB77A-6D9B-4F17-B1BC-C173C2910E40}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D62527E1-0A3F-43F9-9A3F-EF46A6A8A387}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -74,28 +74,28 @@
     <t>45,26%</t>
   </si>
   <si>
-    <t>35,55%</t>
-  </si>
-  <si>
-    <t>56,04%</t>
+    <t>36,08%</t>
+  </si>
+  <si>
+    <t>55,84%</t>
   </si>
   <si>
     <t>38,03%</t>
   </si>
   <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>44,47%</t>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>45,44%</t>
   </si>
   <si>
     <t>41,2%</t>
   </si>
   <si>
-    <t>34,99%</t>
-  </si>
-  <si>
-    <t>47,32%</t>
+    <t>35,48%</t>
+  </si>
+  <si>
+    <t>48,24%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>54,74%</t>
   </si>
   <si>
-    <t>43,96%</t>
-  </si>
-  <si>
-    <t>64,45%</t>
+    <t>44,16%</t>
+  </si>
+  <si>
+    <t>63,92%</t>
   </si>
   <si>
     <t>61,97%</t>
   </si>
   <si>
-    <t>55,53%</t>
-  </si>
-  <si>
-    <t>68,9%</t>
+    <t>54,56%</t>
+  </si>
+  <si>
+    <t>68,6%</t>
   </si>
   <si>
     <t>58,8%</t>
   </si>
   <si>
-    <t>52,68%</t>
-  </si>
-  <si>
-    <t>65,01%</t>
+    <t>51,76%</t>
+  </si>
+  <si>
+    <t>64,52%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>35,99%</t>
   </si>
   <si>
-    <t>31,66%</t>
-  </si>
-  <si>
-    <t>40,97%</t>
+    <t>31,68%</t>
+  </si>
+  <si>
+    <t>40,32%</t>
   </si>
   <si>
     <t>38,54%</t>
   </si>
   <si>
-    <t>35,1%</t>
-  </si>
-  <si>
-    <t>41,91%</t>
+    <t>35,3%</t>
+  </si>
+  <si>
+    <t>42,07%</t>
   </si>
   <si>
     <t>37,31%</t>
   </si>
   <si>
-    <t>34,71%</t>
-  </si>
-  <si>
-    <t>40,15%</t>
+    <t>34,68%</t>
+  </si>
+  <si>
+    <t>39,94%</t>
   </si>
   <si>
     <t>64,01%</t>
   </si>
   <si>
-    <t>59,03%</t>
-  </si>
-  <si>
-    <t>68,34%</t>
+    <t>59,68%</t>
+  </si>
+  <si>
+    <t>68,32%</t>
   </si>
   <si>
     <t>61,46%</t>
   </si>
   <si>
-    <t>58,09%</t>
-  </si>
-  <si>
-    <t>64,9%</t>
+    <t>57,93%</t>
+  </si>
+  <si>
+    <t>64,7%</t>
   </si>
   <si>
     <t>62,69%</t>
   </si>
   <si>
-    <t>59,85%</t>
-  </si>
-  <si>
-    <t>65,29%</t>
+    <t>60,06%</t>
+  </si>
+  <si>
+    <t>65,32%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -194,55 +194,55 @@
     <t>39,05%</t>
   </si>
   <si>
-    <t>32,1%</t>
-  </si>
-  <si>
-    <t>42,92%</t>
+    <t>33,42%</t>
+  </si>
+  <si>
+    <t>43,24%</t>
   </si>
   <si>
     <t>37,11%</t>
   </si>
   <si>
-    <t>34,4%</t>
-  </si>
-  <si>
-    <t>39,71%</t>
+    <t>34,48%</t>
+  </si>
+  <si>
+    <t>39,57%</t>
   </si>
   <si>
     <t>38,07%</t>
   </si>
   <si>
-    <t>34,89%</t>
-  </si>
-  <si>
-    <t>40,62%</t>
+    <t>34,5%</t>
+  </si>
+  <si>
+    <t>40,45%</t>
   </si>
   <si>
     <t>60,95%</t>
   </si>
   <si>
-    <t>57,08%</t>
-  </si>
-  <si>
-    <t>67,9%</t>
+    <t>56,76%</t>
+  </si>
+  <si>
+    <t>66,58%</t>
   </si>
   <si>
     <t>62,89%</t>
   </si>
   <si>
-    <t>60,29%</t>
-  </si>
-  <si>
-    <t>65,6%</t>
+    <t>60,43%</t>
+  </si>
+  <si>
+    <t>65,52%</t>
   </si>
   <si>
     <t>61,93%</t>
   </si>
   <si>
-    <t>59,38%</t>
-  </si>
-  <si>
-    <t>65,11%</t>
+    <t>59,55%</t>
+  </si>
+  <si>
+    <t>65,5%</t>
   </si>
   <si>
     <t>mas de 50</t>
@@ -251,55 +251,55 @@
     <t>52,34%</t>
   </si>
   <si>
-    <t>48,24%</t>
-  </si>
-  <si>
-    <t>56,97%</t>
+    <t>47,83%</t>
+  </si>
+  <si>
+    <t>56,87%</t>
   </si>
   <si>
     <t>36,74%</t>
   </si>
   <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>43,09%</t>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>43,34%</t>
   </si>
   <si>
     <t>43,83%</t>
   </si>
   <si>
-    <t>34,56%</t>
-  </si>
-  <si>
-    <t>48,04%</t>
+    <t>34,75%</t>
+  </si>
+  <si>
+    <t>48,19%</t>
   </si>
   <si>
     <t>47,66%</t>
   </si>
   <si>
-    <t>43,03%</t>
-  </si>
-  <si>
-    <t>51,76%</t>
+    <t>43,13%</t>
+  </si>
+  <si>
+    <t>52,17%</t>
   </si>
   <si>
     <t>63,26%</t>
   </si>
   <si>
-    <t>56,91%</t>
-  </si>
-  <si>
-    <t>75,07%</t>
+    <t>56,66%</t>
+  </si>
+  <si>
+    <t>75,86%</t>
   </si>
   <si>
     <t>56,17%</t>
   </si>
   <si>
-    <t>51,96%</t>
-  </si>
-  <si>
-    <t>65,44%</t>
+    <t>51,81%</t>
+  </si>
+  <si>
+    <t>65,25%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -308,109 +308,109 @@
     <t>49,87%</t>
   </si>
   <si>
-    <t>46,57%</t>
-  </si>
-  <si>
-    <t>53,6%</t>
+    <t>46,45%</t>
+  </si>
+  <si>
+    <t>53,24%</t>
   </si>
   <si>
     <t>43,41%</t>
   </si>
   <si>
-    <t>40,13%</t>
-  </si>
-  <si>
-    <t>46,41%</t>
+    <t>40,3%</t>
+  </si>
+  <si>
+    <t>46,21%</t>
   </si>
   <si>
     <t>46,37%</t>
   </si>
   <si>
-    <t>43,87%</t>
-  </si>
-  <si>
-    <t>48,49%</t>
+    <t>44,0%</t>
+  </si>
+  <si>
+    <t>48,75%</t>
   </si>
   <si>
     <t>50,13%</t>
   </si>
   <si>
-    <t>46,4%</t>
-  </si>
-  <si>
-    <t>53,43%</t>
+    <t>46,76%</t>
+  </si>
+  <si>
+    <t>53,55%</t>
   </si>
   <si>
     <t>56,59%</t>
   </si>
   <si>
-    <t>53,59%</t>
-  </si>
-  <si>
-    <t>59,87%</t>
+    <t>53,79%</t>
+  </si>
+  <si>
+    <t>59,7%</t>
   </si>
   <si>
     <t>53,63%</t>
   </si>
   <si>
-    <t>51,51%</t>
-  </si>
-  <si>
-    <t>56,13%</t>
+    <t>51,25%</t>
+  </si>
+  <si>
+    <t>56,0%</t>
   </si>
   <si>
     <t>44,69%</t>
   </si>
   <si>
-    <t>42,06%</t>
-  </si>
-  <si>
-    <t>46,71%</t>
+    <t>42,16%</t>
+  </si>
+  <si>
+    <t>46,75%</t>
   </si>
   <si>
     <t>39,18%</t>
   </si>
   <si>
-    <t>35,48%</t>
-  </si>
-  <si>
-    <t>41,12%</t>
+    <t>34,84%</t>
+  </si>
+  <si>
+    <t>41,0%</t>
   </si>
   <si>
     <t>41,77%</t>
   </si>
   <si>
-    <t>39,33%</t>
-  </si>
-  <si>
-    <t>43,34%</t>
+    <t>39,17%</t>
+  </si>
+  <si>
+    <t>43,12%</t>
   </si>
   <si>
     <t>55,31%</t>
   </si>
   <si>
-    <t>53,29%</t>
-  </si>
-  <si>
-    <t>57,94%</t>
+    <t>53,25%</t>
+  </si>
+  <si>
+    <t>57,84%</t>
   </si>
   <si>
     <t>60,82%</t>
   </si>
   <si>
-    <t>58,88%</t>
-  </si>
-  <si>
-    <t>64,52%</t>
+    <t>59,0%</t>
+  </si>
+  <si>
+    <t>65,16%</t>
   </si>
   <si>
     <t>58,23%</t>
   </si>
   <si>
-    <t>56,66%</t>
-  </si>
-  <si>
-    <t>60,67%</t>
+    <t>56,88%</t>
+  </si>
+  <si>
+    <t>60,83%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -825,7 +825,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{133DB821-A6B2-46A8-B3DF-4BDA907D9AD0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D109024-0DC2-4C76-B138-7693C63ACF1E}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1787,7 +1787,7 @@
         <v>3177</v>
       </c>
       <c r="I20" s="7">
-        <v>2310811</v>
+        <v>2310810</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>119</v>
@@ -1838,7 +1838,7 @@
         <v>5354</v>
       </c>
       <c r="I21" s="7">
-        <v>3799451</v>
+        <v>3799450</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/P34C_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P34C_2023-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{194B3F31-6F4A-4FAD-BDA1-B53CED23549A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{513C347F-0EA7-4541-9C6C-AB2DC37EDAFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D62527E1-0A3F-43F9-9A3F-EF46A6A8A387}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{95D92B52-E432-4734-99E8-90976D51DD57}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -131,7 +131,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>35,99%</t>
@@ -188,7 +188,7 @@
     <t>65,32%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>39,05%</t>
@@ -245,7 +245,7 @@
     <t>65,5%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>52,34%</t>
@@ -825,7 +825,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D109024-0DC2-4C76-B138-7693C63ACF1E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14248985-A8AE-43C8-8273-D2CF2AA2437F}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P34C_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P34C_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{513C347F-0EA7-4541-9C6C-AB2DC37EDAFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1070B1C9-C3D1-4BB1-87BF-C8FCDBB3A2AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{95D92B52-E432-4734-99E8-90976D51DD57}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2C0A164B-25C1-4FD9-8DB4-460F1FD30060}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -74,343 +74,343 @@
     <t>45,26%</t>
   </si>
   <si>
-    <t>36,08%</t>
-  </si>
-  <si>
-    <t>55,84%</t>
+    <t>35,55%</t>
+  </si>
+  <si>
+    <t>56,04%</t>
   </si>
   <si>
     <t>38,03%</t>
   </si>
   <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>45,44%</t>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>44,47%</t>
   </si>
   <si>
     <t>41,2%</t>
   </si>
   <si>
+    <t>34,99%</t>
+  </si>
+  <si>
+    <t>47,32%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>54,74%</t>
+  </si>
+  <si>
+    <t>43,96%</t>
+  </si>
+  <si>
+    <t>64,45%</t>
+  </si>
+  <si>
+    <t>61,97%</t>
+  </si>
+  <si>
+    <t>55,53%</t>
+  </si>
+  <si>
+    <t>68,9%</t>
+  </si>
+  <si>
+    <t>58,8%</t>
+  </si>
+  <si>
+    <t>52,68%</t>
+  </si>
+  <si>
+    <t>65,01%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>35,99%</t>
+  </si>
+  <si>
+    <t>31,66%</t>
+  </si>
+  <si>
+    <t>40,97%</t>
+  </si>
+  <si>
+    <t>38,54%</t>
+  </si>
+  <si>
+    <t>35,1%</t>
+  </si>
+  <si>
+    <t>41,91%</t>
+  </si>
+  <si>
+    <t>37,31%</t>
+  </si>
+  <si>
+    <t>34,71%</t>
+  </si>
+  <si>
+    <t>40,15%</t>
+  </si>
+  <si>
+    <t>64,01%</t>
+  </si>
+  <si>
+    <t>59,03%</t>
+  </si>
+  <si>
+    <t>68,34%</t>
+  </si>
+  <si>
+    <t>61,46%</t>
+  </si>
+  <si>
+    <t>58,09%</t>
+  </si>
+  <si>
+    <t>64,9%</t>
+  </si>
+  <si>
+    <t>62,69%</t>
+  </si>
+  <si>
+    <t>59,85%</t>
+  </si>
+  <si>
+    <t>65,29%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>39,05%</t>
+  </si>
+  <si>
+    <t>32,1%</t>
+  </si>
+  <si>
+    <t>42,92%</t>
+  </si>
+  <si>
+    <t>37,11%</t>
+  </si>
+  <si>
+    <t>34,4%</t>
+  </si>
+  <si>
+    <t>39,71%</t>
+  </si>
+  <si>
+    <t>38,07%</t>
+  </si>
+  <si>
+    <t>34,89%</t>
+  </si>
+  <si>
+    <t>40,62%</t>
+  </si>
+  <si>
+    <t>60,95%</t>
+  </si>
+  <si>
+    <t>57,08%</t>
+  </si>
+  <si>
+    <t>67,9%</t>
+  </si>
+  <si>
+    <t>62,89%</t>
+  </si>
+  <si>
+    <t>60,29%</t>
+  </si>
+  <si>
+    <t>65,6%</t>
+  </si>
+  <si>
+    <t>61,93%</t>
+  </si>
+  <si>
+    <t>59,38%</t>
+  </si>
+  <si>
+    <t>65,11%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>52,34%</t>
+  </si>
+  <si>
+    <t>48,24%</t>
+  </si>
+  <si>
+    <t>56,97%</t>
+  </si>
+  <si>
+    <t>36,74%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>43,09%</t>
+  </si>
+  <si>
+    <t>43,83%</t>
+  </si>
+  <si>
+    <t>34,56%</t>
+  </si>
+  <si>
+    <t>48,04%</t>
+  </si>
+  <si>
+    <t>47,66%</t>
+  </si>
+  <si>
+    <t>43,03%</t>
+  </si>
+  <si>
+    <t>51,76%</t>
+  </si>
+  <si>
+    <t>63,26%</t>
+  </si>
+  <si>
+    <t>56,91%</t>
+  </si>
+  <si>
+    <t>75,07%</t>
+  </si>
+  <si>
+    <t>56,17%</t>
+  </si>
+  <si>
+    <t>51,96%</t>
+  </si>
+  <si>
+    <t>65,44%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>49,87%</t>
+  </si>
+  <si>
+    <t>46,57%</t>
+  </si>
+  <si>
+    <t>53,6%</t>
+  </si>
+  <si>
+    <t>43,41%</t>
+  </si>
+  <si>
+    <t>40,13%</t>
+  </si>
+  <si>
+    <t>46,41%</t>
+  </si>
+  <si>
+    <t>46,37%</t>
+  </si>
+  <si>
+    <t>43,87%</t>
+  </si>
+  <si>
+    <t>48,49%</t>
+  </si>
+  <si>
+    <t>50,13%</t>
+  </si>
+  <si>
+    <t>46,4%</t>
+  </si>
+  <si>
+    <t>53,43%</t>
+  </si>
+  <si>
+    <t>56,59%</t>
+  </si>
+  <si>
+    <t>53,59%</t>
+  </si>
+  <si>
+    <t>59,87%</t>
+  </si>
+  <si>
+    <t>53,63%</t>
+  </si>
+  <si>
+    <t>51,51%</t>
+  </si>
+  <si>
+    <t>56,13%</t>
+  </si>
+  <si>
+    <t>44,69%</t>
+  </si>
+  <si>
+    <t>42,06%</t>
+  </si>
+  <si>
+    <t>46,71%</t>
+  </si>
+  <si>
+    <t>39,18%</t>
+  </si>
+  <si>
     <t>35,48%</t>
   </si>
   <si>
-    <t>48,24%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>54,74%</t>
-  </si>
-  <si>
-    <t>44,16%</t>
-  </si>
-  <si>
-    <t>63,92%</t>
-  </si>
-  <si>
-    <t>61,97%</t>
-  </si>
-  <si>
-    <t>54,56%</t>
-  </si>
-  <si>
-    <t>68,6%</t>
-  </si>
-  <si>
-    <t>58,8%</t>
-  </si>
-  <si>
-    <t>51,76%</t>
+    <t>41,12%</t>
+  </si>
+  <si>
+    <t>41,77%</t>
+  </si>
+  <si>
+    <t>39,33%</t>
+  </si>
+  <si>
+    <t>43,34%</t>
+  </si>
+  <si>
+    <t>55,31%</t>
+  </si>
+  <si>
+    <t>53,29%</t>
+  </si>
+  <si>
+    <t>57,94%</t>
+  </si>
+  <si>
+    <t>60,82%</t>
+  </si>
+  <si>
+    <t>58,88%</t>
   </si>
   <si>
     <t>64,52%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>35,99%</t>
-  </si>
-  <si>
-    <t>31,68%</t>
-  </si>
-  <si>
-    <t>40,32%</t>
-  </si>
-  <si>
-    <t>38,54%</t>
-  </si>
-  <si>
-    <t>35,3%</t>
-  </si>
-  <si>
-    <t>42,07%</t>
-  </si>
-  <si>
-    <t>37,31%</t>
-  </si>
-  <si>
-    <t>34,68%</t>
-  </si>
-  <si>
-    <t>39,94%</t>
-  </si>
-  <si>
-    <t>64,01%</t>
-  </si>
-  <si>
-    <t>59,68%</t>
-  </si>
-  <si>
-    <t>68,32%</t>
-  </si>
-  <si>
-    <t>61,46%</t>
-  </si>
-  <si>
-    <t>57,93%</t>
-  </si>
-  <si>
-    <t>64,7%</t>
-  </si>
-  <si>
-    <t>62,69%</t>
-  </si>
-  <si>
-    <t>60,06%</t>
-  </si>
-  <si>
-    <t>65,32%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>39,05%</t>
-  </si>
-  <si>
-    <t>33,42%</t>
-  </si>
-  <si>
-    <t>43,24%</t>
-  </si>
-  <si>
-    <t>37,11%</t>
-  </si>
-  <si>
-    <t>34,48%</t>
-  </si>
-  <si>
-    <t>39,57%</t>
-  </si>
-  <si>
-    <t>38,07%</t>
-  </si>
-  <si>
-    <t>34,5%</t>
-  </si>
-  <si>
-    <t>40,45%</t>
-  </si>
-  <si>
-    <t>60,95%</t>
-  </si>
-  <si>
-    <t>56,76%</t>
-  </si>
-  <si>
-    <t>66,58%</t>
-  </si>
-  <si>
-    <t>62,89%</t>
-  </si>
-  <si>
-    <t>60,43%</t>
-  </si>
-  <si>
-    <t>65,52%</t>
-  </si>
-  <si>
-    <t>61,93%</t>
-  </si>
-  <si>
-    <t>59,55%</t>
-  </si>
-  <si>
-    <t>65,5%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>52,34%</t>
-  </si>
-  <si>
-    <t>47,83%</t>
-  </si>
-  <si>
-    <t>56,87%</t>
-  </si>
-  <si>
-    <t>36,74%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>43,34%</t>
-  </si>
-  <si>
-    <t>43,83%</t>
-  </si>
-  <si>
-    <t>34,75%</t>
-  </si>
-  <si>
-    <t>48,19%</t>
-  </si>
-  <si>
-    <t>47,66%</t>
-  </si>
-  <si>
-    <t>43,13%</t>
-  </si>
-  <si>
-    <t>52,17%</t>
-  </si>
-  <si>
-    <t>63,26%</t>
+    <t>58,23%</t>
   </si>
   <si>
     <t>56,66%</t>
   </si>
   <si>
-    <t>75,86%</t>
-  </si>
-  <si>
-    <t>56,17%</t>
-  </si>
-  <si>
-    <t>51,81%</t>
-  </si>
-  <si>
-    <t>65,25%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>49,87%</t>
-  </si>
-  <si>
-    <t>46,45%</t>
-  </si>
-  <si>
-    <t>53,24%</t>
-  </si>
-  <si>
-    <t>43,41%</t>
-  </si>
-  <si>
-    <t>40,3%</t>
-  </si>
-  <si>
-    <t>46,21%</t>
-  </si>
-  <si>
-    <t>46,37%</t>
-  </si>
-  <si>
-    <t>44,0%</t>
-  </si>
-  <si>
-    <t>48,75%</t>
-  </si>
-  <si>
-    <t>50,13%</t>
-  </si>
-  <si>
-    <t>46,76%</t>
-  </si>
-  <si>
-    <t>53,55%</t>
-  </si>
-  <si>
-    <t>56,59%</t>
-  </si>
-  <si>
-    <t>53,79%</t>
-  </si>
-  <si>
-    <t>59,7%</t>
-  </si>
-  <si>
-    <t>53,63%</t>
-  </si>
-  <si>
-    <t>51,25%</t>
-  </si>
-  <si>
-    <t>56,0%</t>
-  </si>
-  <si>
-    <t>44,69%</t>
-  </si>
-  <si>
-    <t>42,16%</t>
-  </si>
-  <si>
-    <t>46,75%</t>
-  </si>
-  <si>
-    <t>39,18%</t>
-  </si>
-  <si>
-    <t>34,84%</t>
-  </si>
-  <si>
-    <t>41,0%</t>
-  </si>
-  <si>
-    <t>41,77%</t>
-  </si>
-  <si>
-    <t>39,17%</t>
-  </si>
-  <si>
-    <t>43,12%</t>
-  </si>
-  <si>
-    <t>55,31%</t>
-  </si>
-  <si>
-    <t>53,25%</t>
-  </si>
-  <si>
-    <t>57,84%</t>
-  </si>
-  <si>
-    <t>60,82%</t>
-  </si>
-  <si>
-    <t>59,0%</t>
-  </si>
-  <si>
-    <t>65,16%</t>
-  </si>
-  <si>
-    <t>58,23%</t>
-  </si>
-  <si>
-    <t>56,88%</t>
-  </si>
-  <si>
-    <t>60,83%</t>
+    <t>60,67%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -825,7 +825,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14248985-A8AE-43C8-8273-D2CF2AA2437F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B43DF61-A49B-4BCA-BBC4-E8CD3EEBC9D3}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1787,7 +1787,7 @@
         <v>3177</v>
       </c>
       <c r="I20" s="7">
-        <v>2310810</v>
+        <v>2310811</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>119</v>
@@ -1838,7 +1838,7 @@
         <v>5354</v>
       </c>
       <c r="I21" s="7">
-        <v>3799450</v>
+        <v>3799451</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/P34C_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P34C_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1070B1C9-C3D1-4BB1-87BF-C8FCDBB3A2AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB229E6F-DBE1-4BFE-8CC6-AD735C126D0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2C0A164B-25C1-4FD9-8DB4-460F1FD30060}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{14E340DD-6DDB-492E-A52B-DF46BBA9EE90}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="107">
   <si>
     <t>Población según si realizan durante la semana alguna actividad física moderada con una duración de al menos 10 minutos en 2023 (Tasa respuesta: 99,81%)</t>
   </si>
@@ -65,352 +65,295 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>45,26%</t>
-  </si>
-  <si>
-    <t>35,55%</t>
-  </si>
-  <si>
-    <t>56,04%</t>
-  </si>
-  <si>
-    <t>38,03%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>44,47%</t>
-  </si>
-  <si>
-    <t>41,2%</t>
-  </si>
-  <si>
-    <t>34,99%</t>
-  </si>
-  <si>
-    <t>47,32%</t>
+    <t>37,93%</t>
+  </si>
+  <si>
+    <t>33,47%</t>
+  </si>
+  <si>
+    <t>42,19%</t>
+  </si>
+  <si>
+    <t>38,88%</t>
+  </si>
+  <si>
+    <t>35,95%</t>
+  </si>
+  <si>
+    <t>41,89%</t>
+  </si>
+  <si>
+    <t>38,42%</t>
+  </si>
+  <si>
+    <t>35,93%</t>
+  </si>
+  <si>
+    <t>41,31%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>54,74%</t>
-  </si>
-  <si>
-    <t>43,96%</t>
-  </si>
-  <si>
-    <t>64,45%</t>
-  </si>
-  <si>
-    <t>61,97%</t>
-  </si>
-  <si>
-    <t>55,53%</t>
-  </si>
-  <si>
-    <t>68,9%</t>
-  </si>
-  <si>
-    <t>58,8%</t>
-  </si>
-  <si>
-    <t>52,68%</t>
-  </si>
-  <si>
-    <t>65,01%</t>
+    <t>62,07%</t>
+  </si>
+  <si>
+    <t>57,81%</t>
+  </si>
+  <si>
+    <t>66,53%</t>
+  </si>
+  <si>
+    <t>61,12%</t>
+  </si>
+  <si>
+    <t>58,11%</t>
+  </si>
+  <si>
+    <t>64,05%</t>
+  </si>
+  <si>
+    <t>61,58%</t>
+  </si>
+  <si>
+    <t>58,69%</t>
+  </si>
+  <si>
+    <t>64,07%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>35,99%</t>
-  </si>
-  <si>
-    <t>31,66%</t>
-  </si>
-  <si>
-    <t>40,97%</t>
-  </si>
-  <si>
-    <t>38,54%</t>
-  </si>
-  <si>
-    <t>35,1%</t>
-  </si>
-  <si>
-    <t>41,91%</t>
-  </si>
-  <si>
-    <t>37,31%</t>
-  </si>
-  <si>
-    <t>34,71%</t>
-  </si>
-  <si>
-    <t>40,15%</t>
-  </si>
-  <si>
-    <t>64,01%</t>
-  </si>
-  <si>
-    <t>59,03%</t>
-  </si>
-  <si>
-    <t>68,34%</t>
-  </si>
-  <si>
-    <t>61,46%</t>
-  </si>
-  <si>
-    <t>58,09%</t>
-  </si>
-  <si>
-    <t>64,9%</t>
-  </si>
-  <si>
-    <t>62,69%</t>
-  </si>
-  <si>
-    <t>59,85%</t>
-  </si>
-  <si>
-    <t>65,29%</t>
-  </si>
-  <si>
     <t>10-50.000 hab</t>
   </si>
   <si>
-    <t>39,05%</t>
-  </si>
-  <si>
-    <t>32,1%</t>
-  </si>
-  <si>
-    <t>42,92%</t>
-  </si>
-  <si>
-    <t>37,11%</t>
-  </si>
-  <si>
-    <t>34,4%</t>
-  </si>
-  <si>
-    <t>39,71%</t>
-  </si>
-  <si>
-    <t>38,07%</t>
-  </si>
-  <si>
-    <t>34,89%</t>
-  </si>
-  <si>
-    <t>40,62%</t>
-  </si>
-  <si>
-    <t>60,95%</t>
-  </si>
-  <si>
-    <t>57,08%</t>
-  </si>
-  <si>
-    <t>67,9%</t>
-  </si>
-  <si>
-    <t>62,89%</t>
-  </si>
-  <si>
-    <t>60,29%</t>
-  </si>
-  <si>
-    <t>65,6%</t>
-  </si>
-  <si>
-    <t>61,93%</t>
-  </si>
-  <si>
-    <t>59,38%</t>
-  </si>
-  <si>
-    <t>65,11%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>52,34%</t>
+    <t>33,22%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>42,84%</t>
+  </si>
+  <si>
+    <t>37,65%</t>
+  </si>
+  <si>
+    <t>34,95%</t>
+  </si>
+  <si>
+    <t>40,22%</t>
+  </si>
+  <si>
+    <t>35,19%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>40,51%</t>
+  </si>
+  <si>
+    <t>66,78%</t>
+  </si>
+  <si>
+    <t>57,16%</t>
+  </si>
+  <si>
+    <t>84,11%</t>
+  </si>
+  <si>
+    <t>62,35%</t>
+  </si>
+  <si>
+    <t>59,78%</t>
+  </si>
+  <si>
+    <t>65,05%</t>
+  </si>
+  <si>
+    <t>64,81%</t>
+  </si>
+  <si>
+    <t>59,49%</t>
+  </si>
+  <si>
+    <t>76,09%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>53,2%</t>
+  </si>
+  <si>
+    <t>48,78%</t>
+  </si>
+  <si>
+    <t>57,75%</t>
+  </si>
+  <si>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>42,79%</t>
+  </si>
+  <si>
+    <t>41,22%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
   </si>
   <si>
     <t>48,24%</t>
   </si>
   <si>
-    <t>56,97%</t>
-  </si>
-  <si>
-    <t>36,74%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>43,09%</t>
-  </si>
-  <si>
-    <t>43,83%</t>
-  </si>
-  <si>
-    <t>34,56%</t>
-  </si>
-  <si>
-    <t>48,04%</t>
-  </si>
-  <si>
-    <t>47,66%</t>
-  </si>
-  <si>
-    <t>43,03%</t>
+    <t>46,8%</t>
+  </si>
+  <si>
+    <t>42,25%</t>
+  </si>
+  <si>
+    <t>51,22%</t>
+  </si>
+  <si>
+    <t>67,82%</t>
+  </si>
+  <si>
+    <t>57,21%</t>
+  </si>
+  <si>
+    <t>82,15%</t>
+  </si>
+  <si>
+    <t>58,78%</t>
   </si>
   <si>
     <t>51,76%</t>
   </si>
   <si>
-    <t>63,26%</t>
-  </si>
-  <si>
-    <t>56,91%</t>
-  </si>
-  <si>
-    <t>75,07%</t>
-  </si>
-  <si>
-    <t>56,17%</t>
-  </si>
-  <si>
-    <t>51,96%</t>
-  </si>
-  <si>
-    <t>65,44%</t>
+    <t>72,48%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
-    <t>49,87%</t>
-  </si>
-  <si>
-    <t>46,57%</t>
-  </si>
-  <si>
-    <t>53,6%</t>
-  </si>
-  <si>
-    <t>43,41%</t>
-  </si>
-  <si>
-    <t>40,13%</t>
-  </si>
-  <si>
-    <t>46,41%</t>
-  </si>
-  <si>
-    <t>46,37%</t>
-  </si>
-  <si>
-    <t>43,87%</t>
-  </si>
-  <si>
-    <t>48,49%</t>
-  </si>
-  <si>
-    <t>50,13%</t>
-  </si>
-  <si>
-    <t>46,4%</t>
-  </si>
-  <si>
-    <t>53,43%</t>
-  </si>
-  <si>
-    <t>56,59%</t>
-  </si>
-  <si>
-    <t>53,59%</t>
-  </si>
-  <si>
-    <t>59,87%</t>
-  </si>
-  <si>
-    <t>53,63%</t>
-  </si>
-  <si>
-    <t>51,51%</t>
-  </si>
-  <si>
-    <t>56,13%</t>
-  </si>
-  <si>
-    <t>44,69%</t>
-  </si>
-  <si>
-    <t>42,06%</t>
-  </si>
-  <si>
-    <t>46,71%</t>
-  </si>
-  <si>
-    <t>39,18%</t>
-  </si>
-  <si>
-    <t>35,48%</t>
-  </si>
-  <si>
-    <t>41,12%</t>
-  </si>
-  <si>
-    <t>41,77%</t>
-  </si>
-  <si>
-    <t>39,33%</t>
-  </si>
-  <si>
-    <t>43,34%</t>
-  </si>
-  <si>
-    <t>55,31%</t>
-  </si>
-  <si>
-    <t>53,29%</t>
-  </si>
-  <si>
-    <t>57,94%</t>
-  </si>
-  <si>
-    <t>60,82%</t>
-  </si>
-  <si>
-    <t>58,88%</t>
-  </si>
-  <si>
-    <t>64,52%</t>
-  </si>
-  <si>
-    <t>58,23%</t>
-  </si>
-  <si>
-    <t>56,66%</t>
-  </si>
-  <si>
-    <t>60,67%</t>
+    <t>50,66%</t>
+  </si>
+  <si>
+    <t>47,28%</t>
+  </si>
+  <si>
+    <t>54,65%</t>
+  </si>
+  <si>
+    <t>41,64%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>45,43%</t>
+  </si>
+  <si>
+    <t>45,78%</t>
+  </si>
+  <si>
+    <t>39,97%</t>
+  </si>
+  <si>
+    <t>48,29%</t>
+  </si>
+  <si>
+    <t>49,34%</t>
+  </si>
+  <si>
+    <t>45,35%</t>
+  </si>
+  <si>
+    <t>52,72%</t>
+  </si>
+  <si>
+    <t>58,36%</t>
+  </si>
+  <si>
+    <t>54,57%</t>
+  </si>
+  <si>
+    <t>67,37%</t>
+  </si>
+  <si>
+    <t>54,22%</t>
+  </si>
+  <si>
+    <t>51,71%</t>
+  </si>
+  <si>
+    <t>60,03%</t>
+  </si>
+  <si>
+    <t>42,83%</t>
+  </si>
+  <si>
+    <t>34,03%</t>
+  </si>
+  <si>
+    <t>46,72%</t>
+  </si>
+  <si>
+    <t>37,67%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>40,9%</t>
+  </si>
+  <si>
+    <t>40,18%</t>
+  </si>
+  <si>
+    <t>35,25%</t>
+  </si>
+  <si>
+    <t>43,1%</t>
+  </si>
+  <si>
+    <t>57,17%</t>
+  </si>
+  <si>
+    <t>53,28%</t>
+  </si>
+  <si>
+    <t>65,97%</t>
+  </si>
+  <si>
+    <t>62,33%</t>
+  </si>
+  <si>
+    <t>59,1%</t>
+  </si>
+  <si>
+    <t>69,54%</t>
+  </si>
+  <si>
+    <t>59,82%</t>
+  </si>
+  <si>
+    <t>56,9%</t>
+  </si>
+  <si>
+    <t>64,75%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -825,8 +768,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B43DF61-A49B-4BCA-BBC4-E8CD3EEBC9D3}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C84B34C-BE8F-42BB-AD14-1793FEDB2BC0}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -943,10 +886,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>49</v>
+        <v>265</v>
       </c>
       <c r="D4" s="7">
-        <v>46161</v>
+        <v>240850</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -958,10 +901,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>96</v>
+        <v>475</v>
       </c>
       <c r="I4" s="7">
-        <v>49714</v>
+        <v>262605</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -973,10 +916,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>145</v>
+        <v>740</v>
       </c>
       <c r="N4" s="7">
-        <v>95875</v>
+        <v>503456</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -994,10 +937,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>69</v>
+        <v>464</v>
       </c>
       <c r="D5" s="7">
-        <v>55821</v>
+        <v>394150</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1009,10 +952,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>147</v>
+        <v>763</v>
       </c>
       <c r="I5" s="7">
-        <v>81019</v>
+        <v>412765</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1024,10 +967,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>216</v>
+        <v>1227</v>
       </c>
       <c r="N5" s="7">
-        <v>136840</v>
+        <v>806914</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1045,10 +988,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>118</v>
+        <v>729</v>
       </c>
       <c r="D6" s="7">
-        <v>101982</v>
+        <v>635000</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1060,10 +1003,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>243</v>
+        <v>1238</v>
       </c>
       <c r="I6" s="7">
-        <v>130733</v>
+        <v>675370</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1075,10 +1018,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>361</v>
+        <v>1967</v>
       </c>
       <c r="N6" s="7">
-        <v>232715</v>
+        <v>1310370</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1098,10 +1041,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>216</v>
+        <v>384</v>
       </c>
       <c r="D7" s="7">
-        <v>197685</v>
+        <v>395663</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1113,10 +1056,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>379</v>
+        <v>585</v>
       </c>
       <c r="I7" s="7">
-        <v>228376</v>
+        <v>359831</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1128,10 +1071,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>595</v>
+        <v>969</v>
       </c>
       <c r="N7" s="7">
-        <v>426061</v>
+        <v>755494</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1149,10 +1092,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>395</v>
+        <v>578</v>
       </c>
       <c r="D8" s="7">
-        <v>351662</v>
+        <v>795445</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1164,10 +1107,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>616</v>
+        <v>927</v>
       </c>
       <c r="I8" s="7">
-        <v>364179</v>
+        <v>595964</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1179,10 +1122,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>1011</v>
+        <v>1505</v>
       </c>
       <c r="N8" s="7">
-        <v>715841</v>
+        <v>1391409</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1200,10 +1143,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>611</v>
+        <v>962</v>
       </c>
       <c r="D9" s="7">
-        <v>549347</v>
+        <v>1191108</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1215,10 +1158,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>995</v>
+        <v>1512</v>
       </c>
       <c r="I9" s="7">
-        <v>592555</v>
+        <v>955795</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1230,10 +1173,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1606</v>
+        <v>2474</v>
       </c>
       <c r="N9" s="7">
-        <v>1141902</v>
+        <v>2146903</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1253,10 +1196,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>384</v>
+        <v>332</v>
       </c>
       <c r="D10" s="7">
-        <v>405052</v>
+        <v>374277</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1268,10 +1211,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>585</v>
+        <v>437</v>
       </c>
       <c r="I10" s="7">
-        <v>392247</v>
+        <v>300153</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1283,10 +1226,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>969</v>
+        <v>769</v>
       </c>
       <c r="N10" s="7">
-        <v>797299</v>
+        <v>674430</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1304,10 +1247,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>578</v>
+        <v>343</v>
       </c>
       <c r="D11" s="7">
-        <v>632131</v>
+        <v>329232</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1319,10 +1262,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>927</v>
+        <v>609</v>
       </c>
       <c r="I11" s="7">
-        <v>664663</v>
+        <v>632630</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1334,10 +1277,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>1505</v>
+        <v>952</v>
       </c>
       <c r="N11" s="7">
-        <v>1296794</v>
+        <v>961862</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1355,10 +1298,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>962</v>
+        <v>675</v>
       </c>
       <c r="D12" s="7">
-        <v>1037183</v>
+        <v>703509</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1370,10 +1313,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>1512</v>
+        <v>1046</v>
       </c>
       <c r="I12" s="7">
-        <v>1056910</v>
+        <v>932783</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1385,10 +1328,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>2474</v>
+        <v>1721</v>
       </c>
       <c r="N12" s="7">
-        <v>2094093</v>
+        <v>1636292</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1408,10 +1351,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>332</v>
+        <v>478</v>
       </c>
       <c r="D13" s="7">
-        <v>380873</v>
+        <v>469514</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -1423,10 +1366,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>437</v>
+        <v>680</v>
       </c>
       <c r="I13" s="7">
-        <v>321029</v>
+        <v>454133</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -1438,10 +1381,10 @@
         <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>769</v>
+        <v>1158</v>
       </c>
       <c r="N13" s="7">
-        <v>701902</v>
+        <v>923647</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -1459,10 +1402,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>343</v>
+        <v>528</v>
       </c>
       <c r="D14" s="7">
-        <v>346755</v>
+        <v>457317</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -1474,10 +1417,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>609</v>
+        <v>878</v>
       </c>
       <c r="I14" s="7">
-        <v>552800</v>
+        <v>636435</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -1489,10 +1432,10 @@
         <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>952</v>
+        <v>1406</v>
       </c>
       <c r="N14" s="7">
-        <v>899555</v>
+        <v>1093752</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -1510,10 +1453,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>675</v>
+        <v>1006</v>
       </c>
       <c r="D15" s="7">
-        <v>727628</v>
+        <v>926831</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1525,10 +1468,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>1046</v>
+        <v>1558</v>
       </c>
       <c r="I15" s="7">
-        <v>873829</v>
+        <v>1090568</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1540,10 +1483,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1721</v>
+        <v>2564</v>
       </c>
       <c r="N15" s="7">
-        <v>1601457</v>
+        <v>2017399</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1557,55 +1500,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>478</v>
+        <v>1459</v>
       </c>
       <c r="D16" s="7">
-        <v>481430</v>
+        <v>1480304</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>2177</v>
+      </c>
+      <c r="I16" s="7">
+        <v>1376722</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H16" s="7">
-        <v>680</v>
-      </c>
-      <c r="I16" s="7">
-        <v>497273</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>3636</v>
+      </c>
+      <c r="N16" s="7">
+        <v>2857026</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="M16" s="7">
-        <v>1158</v>
-      </c>
-      <c r="N16" s="7">
-        <v>978703</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1614,49 +1557,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>528</v>
+        <v>1913</v>
       </c>
       <c r="D17" s="7">
-        <v>483973</v>
+        <v>1976143</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>3177</v>
+      </c>
+      <c r="I17" s="7">
+        <v>2277794</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="H17" s="7">
-        <v>878</v>
-      </c>
-      <c r="I17" s="7">
-        <v>648151</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>5090</v>
+      </c>
+      <c r="N17" s="7">
+        <v>4253937</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="M17" s="7">
-        <v>1406</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1132124</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1665,10 +1608,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>1006</v>
+        <v>3372</v>
       </c>
       <c r="D18" s="7">
-        <v>965403</v>
+        <v>3456447</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -1680,10 +1623,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1558</v>
+        <v>5354</v>
       </c>
       <c r="I18" s="7">
-        <v>1145424</v>
+        <v>3654516</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1695,10 +1638,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>2564</v>
+        <v>8726</v>
       </c>
       <c r="N18" s="7">
-        <v>2110827</v>
+        <v>7110963</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -1711,171 +1654,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>1459</v>
-      </c>
-      <c r="D19" s="7">
-        <v>1511200</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="H19" s="7">
-        <v>2177</v>
-      </c>
-      <c r="I19" s="7">
-        <v>1488640</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="M19" s="7">
-        <v>3636</v>
-      </c>
-      <c r="N19" s="7">
-        <v>2999841</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1913</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1870343</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3177</v>
-      </c>
-      <c r="I20" s="7">
-        <v>2310811</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="M20" s="7">
-        <v>5090</v>
-      </c>
-      <c r="N20" s="7">
-        <v>4181153</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3372</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3381543</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>5354</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3799451</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>8726</v>
-      </c>
-      <c r="N21" s="7">
-        <v>7180994</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
